--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630530.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630530.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8D5383-C373-465E-AA30-5D2A06CCA74E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{746A4B00-E92A-49E3-B116-3D215A117A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T063030.927" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063654.099" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630530.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1204.630530.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{746A4B00-E92A-49E3-B116-3D215A117A13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FBCC7BC-C912-4278-A69C-F3FF0F77210D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063654.099" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063909.339" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="107">
   <si>
     <t>Do Ty</t>
   </si>
@@ -224,6 +224,111 @@
   </si>
   <si>
     <t xml:space="preserve">   .</t>
+  </si>
+  <si>
+    <t>INTI DUTA DWITAMA TRANSINDO, P</t>
+  </si>
+  <si>
+    <t>IV70000025</t>
+  </si>
+  <si>
+    <t>ALFRIEDA</t>
+  </si>
+  <si>
+    <t>IMPORT ADIDAS 1X40,1X20</t>
+  </si>
+  <si>
+    <t>IV70000047</t>
+  </si>
+  <si>
+    <t>IV70000049</t>
+  </si>
+  <si>
+    <t>IMPORT ADIDAS 1X40</t>
+  </si>
+  <si>
+    <t>IV70000046</t>
+  </si>
+  <si>
+    <t>IMPORT ADIDAS HTL LCL</t>
+  </si>
+  <si>
+    <t>IV70000061</t>
+  </si>
+  <si>
+    <t>IMPORT H&amp;M LCL</t>
+  </si>
+  <si>
+    <t>JAKARTA INTERNATIONAL CONTAINE</t>
+  </si>
+  <si>
+    <t>NR70000013</t>
+  </si>
+  <si>
+    <t>STORAGE IMPORT ADIDAS INV IV70</t>
+  </si>
+  <si>
+    <t>PT. DWIPA KHARISMA MITRA</t>
+  </si>
+  <si>
+    <t>NR70000031</t>
+  </si>
+  <si>
+    <t>PT. GLOBAL TERMINAL MARUNDA</t>
+  </si>
+  <si>
+    <t>PT.COSCO SHIPPING  LINES INDON</t>
+  </si>
+  <si>
+    <t>NR70000030</t>
+  </si>
+  <si>
+    <t>THC,DO,CIC,CLEANING FCL ADIDAS</t>
+  </si>
+  <si>
+    <t>NR70000035</t>
+  </si>
+  <si>
+    <t>NR70000034</t>
+  </si>
+  <si>
+    <t>LOGISTIK KARYA BERMITRA</t>
+  </si>
+  <si>
+    <t>NR70000029</t>
+  </si>
+  <si>
+    <t>STORAGE IMPORT ADIDAS HTL INV</t>
+  </si>
+  <si>
+    <t>PT. CAKRAWALA PERSADA LOGISTIC</t>
+  </si>
+  <si>
+    <t>NR70000040</t>
+  </si>
+  <si>
+    <t>STORAGE IMPORT H&amp;M INV IV70000</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>JOURNAL KOREKSI</t>
+  </si>
+  <si>
+    <t>KOREKSI FREIGHT IN</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>General Accounting</t>
+  </si>
+  <si>
+    <t>SANTY</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1078,7 +1183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ7"/>
+  <dimension ref="A1:AZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1514,47 +1619,2337 @@
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>24002620</v>
+      </c>
+      <c r="D4">
+        <v>1204</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45346</v>
+      </c>
       <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="H4">
-        <v>423.97</v>
-      </c>
-      <c r="K4">
-        <v>-423.97</v>
+      <c r="G4" s="2">
+        <v>3274.23</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3274.23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
       </c>
       <c r="L4" s="2">
-        <v>6700000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>-6700000</v>
+        <v>51742600</v>
+      </c>
+      <c r="N4" s="2">
+        <v>51742600</v>
+      </c>
+      <c r="O4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4">
+        <v>15803</v>
+      </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
+        <v>2105382</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI4">
+        <v>55229662</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>45307</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP4">
+        <v>1204</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX4">
+        <v>24001163</v>
+      </c>
+      <c r="AY4">
+        <v>630530</v>
+      </c>
+      <c r="AZ4">
+        <v>1204.6305299999999</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>24002621</v>
+      </c>
+      <c r="D5">
+        <v>1204</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45346</v>
+      </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1215.05</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1215.05</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2">
+        <v>19201500</v>
+      </c>
+      <c r="N5" s="2">
+        <v>19201500</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5">
+        <v>15803</v>
+      </c>
+      <c r="T5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" t="s">
+        <v>61</v>
+      </c>
+      <c r="X5">
+        <v>2105382</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5">
+        <v>55229662</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP5">
+        <v>1204</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5">
+        <v>24001163</v>
+      </c>
+      <c r="AY5">
+        <v>630530</v>
+      </c>
+      <c r="AZ5">
+        <v>1204.6305299999999</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>24002622</v>
+      </c>
+      <c r="D6">
+        <v>1204</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45346</v>
+      </c>
       <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1215.05</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1215.05</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2">
+        <v>19201500</v>
+      </c>
+      <c r="N6" s="2">
+        <v>19201500</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6">
+        <v>15803</v>
+      </c>
+      <c r="T6" t="s">
+        <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W6" t="s">
+        <v>61</v>
+      </c>
+      <c r="X6">
+        <v>2105382</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6">
+        <v>55229662</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN6" t="s">
         <v>70</v>
       </c>
-      <c r="H6">
-        <v>423.97</v>
-      </c>
-      <c r="K6">
-        <v>-423.97</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6700000</v>
-      </c>
-      <c r="M6" s="2">
-        <v>-6700000</v>
+      <c r="AO6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP6">
+        <v>1204</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX6">
+        <v>24001163</v>
+      </c>
+      <c r="AY6">
+        <v>630530</v>
+      </c>
+      <c r="AZ6">
+        <v>1204.6305299999999</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>24002623</v>
+      </c>
+      <c r="D7">
+        <v>1204</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45346</v>
+      </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <v>622.28</v>
+      </c>
+      <c r="H7">
+        <v>622.28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="2">
+        <v>9833850</v>
+      </c>
+      <c r="N7" s="2">
+        <v>9833850</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7">
+        <v>15803</v>
+      </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7">
+        <v>2105382</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI7">
+        <v>55229662</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP7">
+        <v>1204</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX7">
+        <v>24001163</v>
+      </c>
+      <c r="AY7">
+        <v>630530</v>
+      </c>
+      <c r="AZ7">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8">
+        <v>24002624</v>
+      </c>
+      <c r="D8">
+        <v>1204</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>342.4</v>
+      </c>
+      <c r="H8">
+        <v>342.4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5411000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5411000</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8">
+        <v>15803</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8">
+        <v>2105382</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI8">
+        <v>55229662</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP8">
+        <v>1204</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX8">
+        <v>24001163</v>
+      </c>
+      <c r="AY8">
+        <v>630530</v>
+      </c>
+      <c r="AZ8">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>24002625</v>
+      </c>
+      <c r="D9">
+        <v>1204</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>122.73</v>
+      </c>
+      <c r="H9">
+        <v>122.73</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1939432</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1939432</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
+      </c>
+      <c r="T9" t="s">
+        <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>2105383</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI9">
+        <v>55113299</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>45307</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP9">
+        <v>1204</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX9">
+        <v>24001165</v>
+      </c>
+      <c r="AY9">
+        <v>630530</v>
+      </c>
+      <c r="AZ9">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>24002626</v>
+      </c>
+      <c r="D10">
+        <v>1204</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <v>41.13</v>
+      </c>
+      <c r="H10">
+        <v>41.13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="2">
+        <v>650000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>650000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>56</v>
+      </c>
+      <c r="R10" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10">
+        <v>15803</v>
+      </c>
+      <c r="T10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X10">
+        <v>2105383</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10">
+        <v>55379020</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>45307</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP10">
+        <v>1204</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX10">
+        <v>24001168</v>
+      </c>
+      <c r="AY10">
+        <v>630530</v>
+      </c>
+      <c r="AZ10">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11">
+        <v>24002627</v>
+      </c>
+      <c r="D11">
+        <v>1204</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>32.78</v>
+      </c>
+      <c r="H11">
+        <v>32.78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="2">
+        <v>518000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>518000</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11">
+        <v>15803</v>
+      </c>
+      <c r="T11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U11" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W11" t="s">
+        <v>61</v>
+      </c>
+      <c r="X11">
+        <v>2105383</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI11">
+        <v>55379020</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>45307</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP11">
+        <v>1204</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX11">
+        <v>24001168</v>
+      </c>
+      <c r="AY11">
+        <v>630530</v>
+      </c>
+      <c r="AZ11">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>24002628</v>
+      </c>
+      <c r="D12">
+        <v>1204</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>30.21</v>
+      </c>
+      <c r="H12">
+        <v>30.21</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="2">
+        <v>477341</v>
+      </c>
+      <c r="N12" s="2">
+        <v>477341</v>
+      </c>
+      <c r="O12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
+      <c r="R12" t="s">
+        <v>57</v>
+      </c>
+      <c r="S12">
+        <v>15803</v>
+      </c>
+      <c r="T12" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" t="s">
+        <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12">
+        <v>2105383</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12">
+        <v>55113299</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12">
+        <v>1204</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX12">
+        <v>24001165</v>
+      </c>
+      <c r="AY12">
+        <v>630530</v>
+      </c>
+      <c r="AZ12">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13">
+        <v>24002629</v>
+      </c>
+      <c r="D13">
+        <v>1204</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>37.65</v>
+      </c>
+      <c r="H13">
+        <v>37.65</v>
+      </c>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>595000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>595000</v>
+      </c>
+      <c r="O13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>56</v>
+      </c>
+      <c r="R13" t="s">
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
+      </c>
+      <c r="T13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" t="s">
+        <v>60</v>
+      </c>
+      <c r="W13" t="s">
+        <v>61</v>
+      </c>
+      <c r="X13">
+        <v>2105383</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG13">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI13">
+        <v>56013767</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP13">
+        <v>1204</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX13">
+        <v>24001166</v>
+      </c>
+      <c r="AY13">
+        <v>630530</v>
+      </c>
+      <c r="AZ13">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>24002630</v>
+      </c>
+      <c r="D14">
+        <v>1204</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14">
+        <v>224.01</v>
+      </c>
+      <c r="H14">
+        <v>224.01</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>60</v>
+      </c>
+      <c r="W14" t="s">
+        <v>61</v>
+      </c>
+      <c r="X14">
+        <v>2105383</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>57323901</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14">
+        <v>1204</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX14">
+        <v>24001167</v>
+      </c>
+      <c r="AY14">
+        <v>630530</v>
+      </c>
+      <c r="AZ14">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24002632</v>
+      </c>
+      <c r="D15">
+        <v>1204</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>46.34</v>
+      </c>
+      <c r="H15">
+        <v>46.34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="2">
+        <v>732341</v>
+      </c>
+      <c r="N15" s="2">
+        <v>732341</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2105384</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI15">
+        <v>55113299</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP15">
+        <v>1204</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX15">
+        <v>24001165</v>
+      </c>
+      <c r="AY15">
+        <v>630530</v>
+      </c>
+      <c r="AZ15">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24002633</v>
+      </c>
+      <c r="D16">
+        <v>1204</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16">
+        <v>37.65</v>
+      </c>
+      <c r="H16">
+        <v>37.65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>595000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>595000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2105384</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI16">
+        <v>56013767</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP16">
+        <v>1204</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX16">
+        <v>24001166</v>
+      </c>
+      <c r="AY16">
+        <v>630530</v>
+      </c>
+      <c r="AZ16">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24002634</v>
+      </c>
+      <c r="D17">
+        <v>1204</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17">
+        <v>224.01</v>
+      </c>
+      <c r="H17">
+        <v>224.01</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>3540000</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>15803</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2105384</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI17">
+        <v>57323901</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45320</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP17">
+        <v>1204</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX17">
+        <v>24001167</v>
+      </c>
+      <c r="AY17">
+        <v>630530</v>
+      </c>
+      <c r="AZ17">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24002635</v>
+      </c>
+      <c r="D18">
+        <v>1204</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>16.23</v>
+      </c>
+      <c r="H18">
+        <v>16.23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="2">
+        <v>256500</v>
+      </c>
+      <c r="N18" s="2">
+        <v>256500</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>57</v>
+      </c>
+      <c r="S18">
+        <v>15803</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2105384</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18">
+        <v>57436497</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45316</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP18">
+        <v>1204</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX18">
+        <v>24001164</v>
+      </c>
+      <c r="AY18">
+        <v>630530</v>
+      </c>
+      <c r="AZ18">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24002636</v>
+      </c>
+      <c r="D19">
+        <v>1204</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45346</v>
+      </c>
+      <c r="F19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19">
+        <v>31.96</v>
+      </c>
+      <c r="H19">
+        <v>31.96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="2">
+        <v>505000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>505000</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19">
+        <v>15803</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2105384</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45346</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI19">
+        <v>55426480</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45334</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP19">
+        <v>1204</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX19">
+        <v>24001169</v>
+      </c>
+      <c r="AY19">
+        <v>630530</v>
+      </c>
+      <c r="AZ19">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>24001012</v>
+      </c>
+      <c r="D20">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="2">
+        <v>6592.05</v>
+      </c>
+      <c r="H20" s="2">
+        <v>6592.05</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>99</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>100</v>
+      </c>
+      <c r="W20" t="s">
+        <v>101</v>
+      </c>
+      <c r="X20">
+        <v>2107209</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>4</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP20">
+        <v>1204</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY20">
+        <v>630530</v>
+      </c>
+      <c r="AZ20">
+        <v>1204.6305299999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14105.76</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14529.73</v>
+      </c>
+      <c r="K21">
+        <v>-423.97</v>
+      </c>
+      <c r="L21" s="2">
+        <v>125439064</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-6700000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>118739064</v>
+      </c>
+      <c r="AG21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14105.76</v>
+      </c>
+      <c r="H22" s="2">
+        <v>14105.76</v>
+      </c>
+      <c r="L22" s="2">
+        <v>118739064</v>
+      </c>
+      <c r="N22" s="2">
+        <v>118739064</v>
+      </c>
+      <c r="AG22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14105.76</v>
+      </c>
+      <c r="H23" s="2">
+        <v>14529.73</v>
+      </c>
+      <c r="K23">
+        <v>-423.97</v>
+      </c>
+      <c r="L23" s="2">
+        <v>125439064</v>
+      </c>
+      <c r="M23" s="2">
+        <v>-6700000</v>
+      </c>
+      <c r="N23" s="2">
+        <v>118739064</v>
+      </c>
+      <c r="AG23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
